--- a/PMP/old/Test25020230a.xlsx
+++ b/PMP/old/Test25020230a.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\PMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\PMP\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81489D63-E0F6-459B-B35E-355711C92218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C3092A-6F72-4C0D-A72E-4AB366627DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{747EB2B8-9DF2-450B-9A30-150F01FDA8F9}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{747EB2B8-9DF2-450B-9A30-150F01FDA8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="CDF" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="PTr" sheetId="7" r:id="rId2"/>
+    <sheet name="Df" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>A</t>
   </si>
@@ -64,32 +64,26 @@
     <t>Variance</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>OID</t>
-  </si>
-  <si>
     <t>weibull</t>
   </si>
   <si>
     <t>gumbel</t>
   </si>
   <si>
-    <t>norm</t>
+    <t>norm R</t>
   </si>
   <si>
-    <t>pearson3</t>
+    <t>norm Python</t>
   </si>
   <si>
-    <t>gamma</t>
+    <t>Tr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +92,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9.6"/>
       <color rgb="FF797129"/>
-      <name val="Var(--pst-font-family-monospace"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
@@ -131,11 +126,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,18 +239,23 @@
           </c:tx>
           <c:spPr>
             <a:ln w="95250" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -686,123 +686,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>6.8999999999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.46E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.1599999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4083E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1075E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.2251999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.1749999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.5503000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.5503000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.10387399999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.111017</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13666900000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13666900000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.17494799999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.18517</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.18517</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.18517</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.195627</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.23952000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.25093399999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.29789100000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.39488299999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.40701799999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.41911199999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.41911199999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.53555299999999995</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.53666000000000003</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.55742100000000006</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.67954999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.68387500000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.69239200000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.78110100000000005</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.79356700000000002</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.79356700000000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.79356700000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.79356700000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.82206699999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.84701800000000005</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.98378699999999997</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -822,7 +705,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>norm</c:v>
+                  <c:v>norm R</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -981,124 +864,124 @@
             <c:numRef>
               <c:f>CDF!$D$2:$D$40</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>3.7052000000000002E-2</c:v>
+                  <c:v>3.8957079999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2599999999999999E-2</c:v>
+                  <c:v>4.465293E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8869999999999999E-2</c:v>
+                  <c:v>6.1276980000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.125942</c:v>
+                  <c:v>0.12902789000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14291699999999999</c:v>
+                  <c:v>0.14604816000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18131800000000001</c:v>
+                  <c:v>0.1844315</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.195437</c:v>
+                  <c:v>0.19850808</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.249863</c:v>
+                  <c:v>0.25263781000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.249863</c:v>
+                  <c:v>0.25263781000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25909199999999999</c:v>
+                  <c:v>0.26179922</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.26677299999999998</c:v>
+                  <c:v>0.26941968999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.29317700000000002</c:v>
+                  <c:v>0.29559766999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.29317700000000002</c:v>
+                  <c:v>0.29559766999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.33015299999999997</c:v>
+                  <c:v>0.33221002999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33968199999999998</c:v>
+                  <c:v>0.34163782999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.33968199999999998</c:v>
+                  <c:v>0.34163782999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33968199999999998</c:v>
+                  <c:v>0.34163782999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.34931499999999999</c:v>
+                  <c:v>0.35116547999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.388766</c:v>
+                  <c:v>0.39016464000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.39883000000000002</c:v>
+                  <c:v>0.40010764999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.43969599999999998</c:v>
+                  <c:v>0.44046806999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.52293900000000004</c:v>
+                  <c:v>0.52264341999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.53334899999999996</c:v>
+                  <c:v>0.53291942000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.543736</c:v>
+                  <c:v>0.54317351999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.543736</c:v>
+                  <c:v>0.54317351999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.644845</c:v>
+                  <c:v>0.64305873999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.64581900000000003</c:v>
+                  <c:v>0.64402143999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.66412899999999997</c:v>
+                  <c:v>0.66213233999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.77359699999999998</c:v>
+                  <c:v>0.77067087999999995</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.77751400000000004</c:v>
+                  <c:v>0.77456601999999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.78523100000000001</c:v>
+                  <c:v>0.78224282999999994</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.86517999999999995</c:v>
+                  <c:v>0.86206585000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.87620200000000004</c:v>
+                  <c:v>0.87312553000000004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.87620200000000004</c:v>
+                  <c:v>0.87312553000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.87620200000000004</c:v>
+                  <c:v>0.87312553000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.87620200000000004</c:v>
+                  <c:v>0.87312553000000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.90095400000000003</c:v>
+                  <c:v>0.89802857999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.921875</c:v>
+                  <c:v>0.91916927000000004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.999421</c:v>
+                  <c:v>0.99932938000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,7 +1002,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pearson3</c:v>
+                  <c:v>norm Python</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1281,121 +1164,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>1.0626E-2</c:v>
+                  <c:v>3.7052000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4770999999999999E-2</c:v>
+                  <c:v>4.2599999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9478000000000001E-2</c:v>
+                  <c:v>5.8869999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.109261</c:v>
+                  <c:v>0.125942</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13125999999999999</c:v>
+                  <c:v>0.14291699999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18131900000000001</c:v>
+                  <c:v>0.18131800000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19961699999999999</c:v>
+                  <c:v>0.195437</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26876299999999997</c:v>
+                  <c:v>0.249863</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26876299999999997</c:v>
+                  <c:v>0.249863</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28021600000000002</c:v>
+                  <c:v>0.25909199999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28967999999999999</c:v>
+                  <c:v>0.26677299999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.32174199999999997</c:v>
+                  <c:v>0.29317700000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.32174199999999997</c:v>
+                  <c:v>0.29317700000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.365371</c:v>
+                  <c:v>0.33015299999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.37637199999999998</c:v>
+                  <c:v>0.33968199999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.37637199999999998</c:v>
+                  <c:v>0.33968199999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.37637199999999998</c:v>
+                  <c:v>0.33968199999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.38739299999999999</c:v>
+                  <c:v>0.34931499999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.43149300000000002</c:v>
+                  <c:v>0.388766</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.44247999999999998</c:v>
+                  <c:v>0.39883000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.48603800000000003</c:v>
+                  <c:v>0.43969599999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.56984000000000001</c:v>
+                  <c:v>0.52293900000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.57988799999999996</c:v>
+                  <c:v>0.53334899999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.58982500000000004</c:v>
+                  <c:v>0.543736</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.58982500000000004</c:v>
+                  <c:v>0.543736</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.68225199999999997</c:v>
+                  <c:v>0.644845</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.68310700000000002</c:v>
+                  <c:v>0.64581900000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.69908099999999995</c:v>
+                  <c:v>0.66412899999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.79082200000000002</c:v>
+                  <c:v>0.77359699999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.79400899999999996</c:v>
+                  <c:v>0.77751400000000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.80027400000000004</c:v>
+                  <c:v>0.78523100000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.86455400000000004</c:v>
+                  <c:v>0.86517999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.87343000000000004</c:v>
+                  <c:v>0.87620200000000004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.87343000000000004</c:v>
+                  <c:v>0.87620200000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.87343000000000004</c:v>
+                  <c:v>0.87620200000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.87343000000000004</c:v>
+                  <c:v>0.87620200000000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.89354100000000003</c:v>
+                  <c:v>0.90095400000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.91089799999999999</c:v>
+                  <c:v>0.921875</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.99513200000000002</c:v>
+                  <c:v>0.999421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,9 +1298,6 @@
               <c:f>CDF!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>gamma</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1577,123 +1457,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>1.3769E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8262E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3505E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.111692</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13294900000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.181314</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.199021</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.26617800000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.26617800000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.27734500000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.28658299999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.31795000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.31795000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.36081299999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.37165399999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.37165399999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.37165399999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.38252799999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.42617699999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.437085</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.48046</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.56448299999999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.57460599999999995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.58462599999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.58462599999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.67827800000000005</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.67914799999999997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.69540999999999997</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.78913500000000003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.79239800000000005</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.79881400000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.86467300000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.87375999999999998</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.87375999999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.87375999999999998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.87375999999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.89432400000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.91203400000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.99582599999999999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1726,9 +1489,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1788,9 +1550,601 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="943922079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>P Tr</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PTr!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>norm R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PTr!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PTr!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>75.478200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.749260000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.25405000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.06943999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162.79741999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181.35482999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>194.18415999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>203.98510999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>233.79863</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250.90537</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>262.93006000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>291.60082</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300.75619999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>329.01352000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>357.04910000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-79C9-4030-B13D-50955A9D61EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PTr!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>norm Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PTr!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PTr!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>105.800701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112.622463</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.26643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137.973974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154.79151400000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>163.18381600000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168.67972900000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>172.72546299999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>184.310869</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190.52722900000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>194.73170999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204.26882000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>207.183322</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>215.82630399999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>223.93328199999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-79C9-4030-B13D-50955A9D61EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="943922079"/>
+        <c:axId val="1344988367"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="943922079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1344988367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1344988367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1960,7 +2314,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2501,6 +3411,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E74167-1FD4-4D07-9C74-76A276384371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2816,863 +3769,626 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FF29CC-2B2A-4C03-B281-5CE2F341E1B2}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F40"/>
+      <selection pane="bottomLeft" activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>25020230</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>37.527320000000003</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C2" s="2">
-        <v>6.8999999999999997E-5</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
+        <v>3.8957079999999998E-2</v>
+      </c>
+      <c r="E2" s="1">
         <v>3.7052000000000002E-2</v>
       </c>
-      <c r="E2" s="2">
-        <v>1.0626E-2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.3769E-2</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>40</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.05</v>
       </c>
-      <c r="C3" s="2">
-        <v>1.46E-4</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
+        <v>4.465293E-2</v>
+      </c>
+      <c r="E3" s="1">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="E3" s="2">
-        <v>1.4770999999999999E-2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.8262E-2</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>46</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C4" s="2">
-        <v>7.1599999999999995E-4</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
+        <v>6.1276980000000002E-2</v>
+      </c>
+      <c r="E4" s="1">
         <v>5.8869999999999999E-2</v>
       </c>
-      <c r="E4" s="2">
-        <v>2.9478000000000001E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3.3505E-2</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>62</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.1</v>
       </c>
-      <c r="C5" s="2">
-        <v>1.4083E-2</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
+        <v>0.12902789000000001</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.125942</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.109261</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.111692</v>
-      </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>65</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.125</v>
       </c>
-      <c r="C6" s="2">
-        <v>2.1075E-2</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
+        <v>0.14604816000000001</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.14291699999999999</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.13125999999999999</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.13294900000000001</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>71</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.15</v>
       </c>
-      <c r="C7" s="2">
-        <v>4.2251999999999998E-2</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
+        <v>0.1844315</v>
+      </c>
+      <c r="E7" s="1">
         <v>0.18131800000000001</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.18131900000000001</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.181314</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>73</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.17499999999999999</v>
       </c>
-      <c r="C8" s="2">
-        <v>5.1749999999999997E-2</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
+        <v>0.19850808</v>
+      </c>
+      <c r="E8" s="1">
         <v>0.195437</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.19961699999999999</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.199021</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>80</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>0.2</v>
       </c>
-      <c r="C9" s="2">
-        <v>9.5503000000000005E-2</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
+        <v>0.25263781000000002</v>
+      </c>
+      <c r="E9" s="1">
         <v>0.249863</v>
       </c>
-      <c r="E9" s="2">
-        <v>0.26876299999999997</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.26617800000000003</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>80</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0.22500000000000001</v>
       </c>
-      <c r="C10" s="2">
-        <v>9.5503000000000005E-2</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
+        <v>0.25263781000000002</v>
+      </c>
+      <c r="E10" s="1">
         <v>0.249863</v>
       </c>
-      <c r="E10" s="2">
-        <v>0.26876299999999997</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.26617800000000003</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>81.099999999999994</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0.25</v>
       </c>
-      <c r="C11" s="2">
-        <v>0.10387399999999999</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
+        <v>0.26179922</v>
+      </c>
+      <c r="E11" s="1">
         <v>0.25909199999999999</v>
       </c>
-      <c r="E11" s="2">
-        <v>0.28021600000000002</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.27734500000000001</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>82</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>0.27500000000000002</v>
       </c>
-      <c r="C12" s="2">
-        <v>0.111017</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
+        <v>0.26941968999999999</v>
+      </c>
+      <c r="E12" s="1">
         <v>0.26677299999999998</v>
       </c>
-      <c r="E12" s="2">
-        <v>0.28967999999999999</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.28658299999999998</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>85</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>0.3</v>
       </c>
-      <c r="C13" s="2">
-        <v>0.13666900000000001</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
+        <v>0.29559766999999998</v>
+      </c>
+      <c r="E13" s="1">
         <v>0.29317700000000002</v>
       </c>
-      <c r="E13" s="2">
-        <v>0.32174199999999997</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.31795000000000001</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>85</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>0.32500000000000001</v>
       </c>
-      <c r="C14" s="2">
-        <v>0.13666900000000001</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
+        <v>0.29559766999999998</v>
+      </c>
+      <c r="E14" s="1">
         <v>0.29317700000000002</v>
       </c>
-      <c r="E14" s="2">
-        <v>0.32174199999999997</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.31795000000000001</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>89</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>0.35</v>
       </c>
-      <c r="C15" s="2">
-        <v>0.17494799999999999</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
+        <v>0.33221002999999999</v>
+      </c>
+      <c r="E15" s="1">
         <v>0.33015299999999997</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.365371</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.36081299999999999</v>
-      </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>90</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>0.375</v>
       </c>
-      <c r="C16" s="2">
-        <v>0.18517</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
+        <v>0.34163782999999998</v>
+      </c>
+      <c r="E16" s="1">
         <v>0.33968199999999998</v>
       </c>
-      <c r="E16" s="2">
-        <v>0.37637199999999998</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.37165399999999998</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>90</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>0.4</v>
       </c>
-      <c r="C17" s="2">
-        <v>0.18517</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
+        <v>0.34163782999999998</v>
+      </c>
+      <c r="E17" s="1">
         <v>0.33968199999999998</v>
       </c>
-      <c r="E17" s="2">
-        <v>0.37637199999999998</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.37165399999999998</v>
-      </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>90</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>0.42499999999999999</v>
       </c>
-      <c r="C18" s="2">
-        <v>0.18517</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
+        <v>0.34163782999999998</v>
+      </c>
+      <c r="E18" s="1">
         <v>0.33968199999999998</v>
       </c>
-      <c r="E18" s="2">
-        <v>0.37637199999999998</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.37165399999999998</v>
-      </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>91</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>0.45</v>
       </c>
-      <c r="C19" s="2">
-        <v>0.195627</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
+        <v>0.35116547999999997</v>
+      </c>
+      <c r="E19" s="1">
         <v>0.34931499999999999</v>
       </c>
-      <c r="E19" s="2">
-        <v>0.38739299999999999</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.38252799999999998</v>
-      </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>95</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>0.47499999999999998</v>
       </c>
-      <c r="C20" s="2">
-        <v>0.23952000000000001</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
+        <v>0.39016464000000001</v>
+      </c>
+      <c r="E20" s="1">
         <v>0.388766</v>
       </c>
-      <c r="E20" s="2">
-        <v>0.43149300000000002</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.42617699999999997</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="2">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>96</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>0.5</v>
       </c>
-      <c r="C21" s="2">
-        <v>0.25093399999999999</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
+        <v>0.40010764999999998</v>
+      </c>
+      <c r="E21" s="1">
         <v>0.39883000000000002</v>
       </c>
-      <c r="E21" s="2">
-        <v>0.44247999999999998</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.437085</v>
-      </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>100</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>0.52500000000000002</v>
       </c>
-      <c r="C22" s="2">
-        <v>0.29789100000000002</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
+        <v>0.44046806999999999</v>
+      </c>
+      <c r="E22" s="1">
         <v>0.43969599999999998</v>
       </c>
-      <c r="E22" s="2">
-        <v>0.48603800000000003</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.48046</v>
-      </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="2">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>108</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C23" s="2">
-        <v>0.39488299999999998</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
+        <v>0.52264341999999997</v>
+      </c>
+      <c r="E23" s="1">
         <v>0.52293900000000004</v>
       </c>
-      <c r="E23" s="2">
-        <v>0.56984000000000001</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.56448299999999996</v>
-      </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="2">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>109</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>0.57499999999999996</v>
       </c>
-      <c r="C24" s="2">
-        <v>0.40701799999999999</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
+        <v>0.53291942000000003</v>
+      </c>
+      <c r="E24" s="1">
         <v>0.53334899999999996</v>
       </c>
-      <c r="E24" s="2">
-        <v>0.57988799999999996</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.57460599999999995</v>
-      </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="2">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>110</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>0.6</v>
       </c>
-      <c r="C25" s="2">
-        <v>0.41911199999999998</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
+        <v>0.54317351999999997</v>
+      </c>
+      <c r="E25" s="1">
         <v>0.543736</v>
       </c>
-      <c r="E25" s="2">
-        <v>0.58982500000000004</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.58462599999999998</v>
-      </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="2">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>110</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>0.625</v>
       </c>
-      <c r="C26" s="2">
-        <v>0.41911199999999998</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
+        <v>0.54317351999999997</v>
+      </c>
+      <c r="E26" s="1">
         <v>0.543736</v>
       </c>
-      <c r="E26" s="2">
-        <v>0.58982500000000004</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.58462599999999998</v>
-      </c>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="2">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>120</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>0.65</v>
       </c>
-      <c r="C27" s="2">
-        <v>0.53555299999999995</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
+        <v>0.64305873999999996</v>
+      </c>
+      <c r="E27" s="1">
         <v>0.644845</v>
       </c>
-      <c r="E27" s="2">
-        <v>0.68225199999999997</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.67827800000000005</v>
-      </c>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="2">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>120.1</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>0.67500000000000004</v>
       </c>
-      <c r="C28" s="2">
-        <v>0.53666000000000003</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
+        <v>0.64402143999999995</v>
+      </c>
+      <c r="E28" s="1">
         <v>0.64581900000000003</v>
       </c>
-      <c r="E28" s="2">
-        <v>0.68310700000000002</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.67914799999999997</v>
-      </c>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="2">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>122</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>0.7</v>
       </c>
-      <c r="C29" s="2">
-        <v>0.55742100000000006</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
+        <v>0.66213233999999999</v>
+      </c>
+      <c r="E29" s="1">
         <v>0.66412899999999997</v>
       </c>
-      <c r="E29" s="2">
-        <v>0.69908099999999995</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.69540999999999997</v>
-      </c>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="2">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>134.5</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>0.72499999999999998</v>
       </c>
-      <c r="C30" s="2">
-        <v>0.67954999999999999</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
+        <v>0.77067087999999995</v>
+      </c>
+      <c r="E30" s="1">
         <v>0.77359699999999998</v>
       </c>
-      <c r="E30" s="2">
-        <v>0.79082200000000002</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.78913500000000003</v>
-      </c>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="2">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>135</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>0.75</v>
       </c>
-      <c r="C31" s="2">
-        <v>0.68387500000000001</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
+        <v>0.77456601999999997</v>
+      </c>
+      <c r="E31" s="1">
         <v>0.77751400000000004</v>
       </c>
-      <c r="E31" s="2">
-        <v>0.79400899999999996</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.79239800000000005</v>
-      </c>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="2">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>136</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>0.77500000000000002</v>
       </c>
-      <c r="C32" s="2">
-        <v>0.69239200000000001</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
+        <v>0.78224282999999994</v>
+      </c>
+      <c r="E32" s="1">
         <v>0.78523100000000001</v>
       </c>
-      <c r="E32" s="2">
-        <v>0.80027400000000004</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.79881400000000002</v>
-      </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="2">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>148</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>0.8</v>
       </c>
-      <c r="C33" s="2">
-        <v>0.78110100000000005</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
+        <v>0.86206585000000002</v>
+      </c>
+      <c r="E33" s="1">
         <v>0.86517999999999995</v>
       </c>
-      <c r="E33" s="2">
-        <v>0.86455400000000004</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0.86467300000000002</v>
-      </c>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="2">
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>150</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>0.82499999999999996</v>
       </c>
-      <c r="C34" s="2">
-        <v>0.79356700000000002</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
+        <v>0.87312553000000004</v>
+      </c>
+      <c r="E34" s="1">
         <v>0.87620200000000004</v>
       </c>
-      <c r="E34" s="2">
-        <v>0.87343000000000004</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0.87375999999999998</v>
-      </c>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="2">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>150</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>0.85</v>
       </c>
-      <c r="C35" s="2">
-        <v>0.79356700000000002</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
+        <v>0.87312553000000004</v>
+      </c>
+      <c r="E35" s="1">
         <v>0.87620200000000004</v>
       </c>
-      <c r="E35" s="2">
-        <v>0.87343000000000004</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.87375999999999998</v>
-      </c>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="2">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>150</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>0.875</v>
       </c>
-      <c r="C36" s="2">
-        <v>0.79356700000000002</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="D36" s="1">
+        <v>0.87312553000000004</v>
+      </c>
+      <c r="E36" s="1">
         <v>0.87620200000000004</v>
       </c>
-      <c r="E36" s="2">
-        <v>0.87343000000000004</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.87375999999999998</v>
-      </c>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="2">
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>150</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>0.9</v>
       </c>
-      <c r="C37" s="2">
-        <v>0.79356700000000002</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
+        <v>0.87312553000000004</v>
+      </c>
+      <c r="E37" s="1">
         <v>0.87620200000000004</v>
       </c>
-      <c r="E37" s="2">
-        <v>0.87343000000000004</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0.87375999999999998</v>
-      </c>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="2">
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>155</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>0.92500000000000004</v>
       </c>
-      <c r="C38" s="2">
-        <v>0.82206699999999999</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
+        <v>0.89802857999999997</v>
+      </c>
+      <c r="E38" s="1">
         <v>0.90095400000000003</v>
       </c>
-      <c r="E38" s="2">
-        <v>0.89354100000000003</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.89432400000000001</v>
-      </c>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="2">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>160</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>0.95</v>
       </c>
-      <c r="C39" s="2">
-        <v>0.84701800000000005</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
+        <v>0.91916927000000004</v>
+      </c>
+      <c r="E39" s="1">
         <v>0.921875</v>
       </c>
-      <c r="E39" s="2">
-        <v>0.91089799999999999</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0.91203400000000001</v>
-      </c>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="2">
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>230</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>0.97499999999999998</v>
       </c>
-      <c r="C40" s="2">
-        <v>0.98378699999999997</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
+        <v>0.99932938000000004</v>
+      </c>
+      <c r="E40" s="1">
         <v>0.999421</v>
       </c>
-      <c r="E40" s="2">
-        <v>0.99513200000000002</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.99582599999999999</v>
-      </c>
-      <c r="H40" s="3"/>
+      <c r="H40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3681,861 +4397,292 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7D907C-B232-4F89-8000-407B911F6839}">
-  <dimension ref="A1:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F2118A-75A5-4BD4-A343-4BF21B234A84}">
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F40"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2">
-        <v>25020230</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1996</v>
-      </c>
-      <c r="C2" s="2">
-        <v>37.527320000000003</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.3769E-2</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C3" s="2">
-        <v>40</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.8262E-2</v>
-      </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1987</v>
-      </c>
-      <c r="C4" s="2">
-        <v>46</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B2" s="1">
+        <v>75.478200000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>105.800701</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="B3" s="1">
+        <v>85.749260000000007</v>
+      </c>
+      <c r="C3" s="1">
+        <v>112.622463</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3.3505E-2</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1992</v>
-      </c>
-      <c r="C5" s="2">
-        <v>62</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.111692</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1991</v>
-      </c>
-      <c r="C6" s="2">
-        <v>65</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B4" s="1">
+        <v>101.25405000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>122.26643</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.13294900000000001</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1998</v>
-      </c>
-      <c r="C7" s="2">
-        <v>71</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.181314</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2012</v>
-      </c>
-      <c r="C8" s="2">
-        <v>73</v>
-      </c>
-      <c r="D8" s="2">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.199021</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2003</v>
-      </c>
-      <c r="C9" s="2">
-        <v>80</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.26617800000000003</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2004</v>
-      </c>
-      <c r="C10" s="2">
-        <v>80</v>
-      </c>
-      <c r="D10" s="2">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.26617800000000003</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2018</v>
-      </c>
-      <c r="C11" s="2">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B5" s="1">
+        <v>129.06943999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>137.973974</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>10</v>
       </c>
-      <c r="E11" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.27734500000000001</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2013</v>
-      </c>
-      <c r="C12" s="2">
-        <v>82</v>
-      </c>
-      <c r="D12" s="2">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.28658299999999998</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1997</v>
-      </c>
-      <c r="C13" s="2">
-        <v>85</v>
-      </c>
-      <c r="D13" s="2">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.31795000000000001</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1989</v>
-      </c>
-      <c r="C14" s="2">
-        <v>85</v>
-      </c>
-      <c r="D14" s="2">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.31795000000000001</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1990</v>
-      </c>
-      <c r="C15" s="2">
-        <v>89</v>
-      </c>
-      <c r="D15" s="2">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.36081299999999999</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C16" s="2">
-        <v>90</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="B6" s="1">
+        <v>162.79741999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>154.79151400000001</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>15</v>
       </c>
-      <c r="E16" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.37165399999999998</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1993</v>
-      </c>
-      <c r="C17" s="2">
-        <v>90</v>
-      </c>
-      <c r="D17" s="2">
-        <v>16</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.37165399999999998</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1995</v>
-      </c>
-      <c r="C18" s="2">
-        <v>90</v>
-      </c>
-      <c r="D18" s="2">
-        <v>17</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.37165399999999998</v>
-      </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2010</v>
-      </c>
-      <c r="C19" s="2">
-        <v>91</v>
-      </c>
-      <c r="D19" s="2">
-        <v>18</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.38252799999999998</v>
-      </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1988</v>
-      </c>
-      <c r="C20" s="2">
-        <v>95</v>
-      </c>
-      <c r="D20" s="2">
-        <v>19</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.42617699999999997</v>
-      </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2014</v>
-      </c>
-      <c r="C21" s="2">
-        <v>96</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B7" s="1">
+        <v>181.35482999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>163.18381600000001</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>20</v>
       </c>
-      <c r="E21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.437085</v>
-      </c>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2016</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B8" s="1">
+        <v>194.18415999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>168.67972900000001</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1">
+        <v>203.98510999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>172.72546299999999</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1">
+        <v>233.79863</v>
+      </c>
+      <c r="C10" s="1">
+        <v>184.310869</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>75</v>
+      </c>
+      <c r="B11" s="1">
+        <v>250.90537</v>
+      </c>
+      <c r="C11" s="1">
+        <v>190.52722900000001</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="D22" s="2">
-        <v>21</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.48046</v>
-      </c>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="2">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C23" s="2">
-        <v>108</v>
-      </c>
-      <c r="D23" s="2">
-        <v>22</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.56448299999999996</v>
-      </c>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="2">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2002</v>
-      </c>
-      <c r="C24" s="2">
-        <v>109</v>
-      </c>
-      <c r="D24" s="2">
-        <v>23</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.57460599999999995</v>
-      </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="2">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2011</v>
-      </c>
-      <c r="C25" s="2">
-        <v>110</v>
-      </c>
-      <c r="D25" s="2">
-        <v>24</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.58462599999999998</v>
-      </c>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="2">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1999</v>
-      </c>
-      <c r="C26" s="2">
-        <v>110</v>
-      </c>
-      <c r="D26" s="2">
-        <v>25</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.58462599999999998</v>
-      </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="2">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1983</v>
-      </c>
-      <c r="C27" s="2">
-        <v>120</v>
-      </c>
-      <c r="D27" s="2">
-        <v>26</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.67827800000000005</v>
-      </c>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="2">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2">
-        <v>2017</v>
-      </c>
-      <c r="C28" s="2">
-        <v>120.1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>27</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.67914799999999997</v>
-      </c>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C29" s="2">
-        <v>122</v>
-      </c>
-      <c r="D29" s="2">
-        <v>28</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.69540999999999997</v>
-      </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="2">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
-        <v>2001</v>
-      </c>
-      <c r="C30" s="2">
-        <v>134.5</v>
-      </c>
-      <c r="D30" s="2">
-        <v>29</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.78913500000000003</v>
-      </c>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="2">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1994</v>
-      </c>
-      <c r="C31" s="2">
-        <v>135</v>
-      </c>
-      <c r="D31" s="2">
-        <v>30</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.79239800000000005</v>
-      </c>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1986</v>
-      </c>
-      <c r="C32" s="2">
-        <v>136</v>
-      </c>
-      <c r="D32" s="2">
-        <v>31</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.79881400000000002</v>
-      </c>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="2">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1982</v>
-      </c>
-      <c r="C33" s="2">
-        <v>148</v>
-      </c>
-      <c r="D33" s="2">
-        <v>32</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0.86467300000000002</v>
-      </c>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2">
-        <v>2007</v>
-      </c>
-      <c r="C34" s="2">
-        <v>150</v>
-      </c>
-      <c r="D34" s="2">
-        <v>33</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0.87375999999999998</v>
-      </c>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2009</v>
-      </c>
-      <c r="C35" s="2">
-        <v>150</v>
-      </c>
-      <c r="D35" s="2">
-        <v>34</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.87375999999999998</v>
-      </c>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="2">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2">
-        <v>2015</v>
-      </c>
-      <c r="C36" s="2">
-        <v>150</v>
-      </c>
-      <c r="D36" s="2">
-        <v>35</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.87375999999999998</v>
-      </c>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="2">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1981</v>
-      </c>
-      <c r="C37" s="2">
-        <v>150</v>
-      </c>
-      <c r="D37" s="2">
-        <v>36</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0.87375999999999998</v>
-      </c>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="2">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1984</v>
-      </c>
-      <c r="C38" s="2">
-        <v>155</v>
-      </c>
-      <c r="D38" s="2">
-        <v>37</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.89432400000000001</v>
-      </c>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="2">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2008</v>
-      </c>
-      <c r="C39" s="2">
-        <v>160</v>
-      </c>
-      <c r="D39" s="2">
-        <v>38</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0.91203400000000001</v>
-      </c>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="2">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2">
-        <v>1985</v>
-      </c>
-      <c r="C40" s="2">
-        <v>230</v>
-      </c>
-      <c r="D40" s="2">
-        <v>39</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.99582599999999999</v>
-      </c>
-      <c r="I40" s="3"/>
+      <c r="B12" s="1">
+        <v>262.93006000000003</v>
+      </c>
+      <c r="C12" s="1">
+        <v>194.73170999999999</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>200</v>
+      </c>
+      <c r="B13" s="1">
+        <v>291.60082</v>
+      </c>
+      <c r="C13" s="1">
+        <v>204.26882000000001</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>250</v>
+      </c>
+      <c r="B14" s="1">
+        <v>300.75619999999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>207.183322</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>500</v>
+      </c>
+      <c r="B15" s="1">
+        <v>329.01352000000003</v>
+      </c>
+      <c r="C15" s="1">
+        <v>215.82630399999999</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B16" s="1">
+        <v>357.04910000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>223.93328199999999</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4543,168 +4690,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE23E70-52E4-4682-92A5-52B7641A3C43}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="3">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>14.5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
         <v>15</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>11.5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>10.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="1">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>9</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>12</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <f>AVERAGE(B2:B5)</f>
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f t="shared" ref="C6:F6" si="0">AVERAGE(C2:C5)</f>
         <v>10.25</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>12.125</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>10.875</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <f>MEDIAN(B2:B5)</f>
         <v>10.5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <f t="shared" ref="C7:F7" si="1">MEDIAN(C2:C5)</f>
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f t="shared" si="1"/>
         <v>11.25</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>11.25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <f>_xlfn.VAR.S(B2:B5)</f>
         <v>8.6666666666666661</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <f t="shared" ref="C8:F8" si="2">_xlfn.VAR.S(C2:C5)</f>
         <v>8.9166666666666661</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <f t="shared" si="2"/>
         <v>11.729166666666666</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <f t="shared" si="2"/>
         <v>10.0625</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <f t="shared" si="2"/>
         <v>3.8333333333333335</v>
       </c>
